--- a/СбербанкОнлайн.xlsx
+++ b/СбербанкОнлайн.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanya\Desktop\тестер\Для занятий QATESTER\ДЗ4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanya\Desktop\тестер\Для занятий QATESTER\Платформа\Задание 2\MyFirst_Repos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="150">
   <si>
     <t>Общее Failed</t>
   </si>
@@ -672,6 +672,12 @@
   </si>
   <si>
     <t>Общее количество тестов</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>GoogleChrom</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1311,7 +1319,7 @@
     <col min="22" max="27" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="2.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:27" ht="42.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1356,7 +1364,7 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" ht="56.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1372,7 +1380,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="7">
         <f>COUNTIF(L$8:L$44,"passed")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="7">
@@ -1401,7 +1409,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:27" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1415,7 +1423,9 @@
         <v>2</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="9"/>
+      <c r="L3" s="9">
+        <v>43578</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="9"/>
       <c r="O3" s="4"/>
@@ -1431,7 +1441,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:27" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1457,7 +1467,7 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:27" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:27" ht="28.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1472,7 +1482,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="10" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="10" t="s">
@@ -1497,7 +1507,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:27" ht="27.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="37" t="s">
         <v>7</v>
@@ -1601,7 +1611,9 @@
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="L8" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="18"/>
       <c r="O8" s="4"/>
@@ -1641,7 +1653,9 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="L9" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="18"/>
       <c r="O9" s="4"/>
@@ -1681,7 +1695,9 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="L10" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="18"/>
       <c r="O10" s="4"/>
@@ -1721,7 +1737,9 @@
       <c r="I11" s="14"/>
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="L11" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="M11" s="23"/>
       <c r="N11" s="22"/>
       <c r="O11" s="23"/>
@@ -1762,7 +1780,9 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
+      <c r="L12" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="18"/>
       <c r="O12" s="4"/>
@@ -1802,7 +1822,9 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
+      <c r="L13" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="18"/>
       <c r="O13" s="4"/>
@@ -1842,7 +1864,9 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="L14" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="18"/>
       <c r="O14" s="4"/>
@@ -1882,7 +1906,9 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="L15" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="18"/>
       <c r="O15" s="4"/>
@@ -1922,7 +1948,9 @@
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
+      <c r="L16" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="18"/>
       <c r="O16" s="4"/>
@@ -1962,7 +1990,9 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
+      <c r="L17" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="18"/>
       <c r="O17" s="4"/>
